--- a/config/30sec_african_countries/africa_using_subdomains/version_2020-10-16/job_division.xlsx
+++ b/config/30sec_african_countries/africa_using_subdomains/version_2020-10-16/job_division.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\edwin\github\edwinkost\PCR-GLOBWB_model_edwin-private-development\config\30sec_african_countries\africa_using_subdomains\version_2020-10-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD2B633-0DEA-4C8E-B8A5-5A76C0F75DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2574B944-F686-40E7-81DD-8EA5925B7B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B46B43F-158A-43CF-BF59-5E093CDBF273}"/>
+    <workbookView xWindow="28680" yWindow="-6045" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{6B46B43F-158A-43CF-BF59-5E093CDBF273}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2nodes" sheetId="1" r:id="rId1"/>
+    <sheet name="3nodes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="34">
   <si>
     <t>#~</t>
   </si>
@@ -129,6 +130,12 @@
   </si>
   <si>
     <t>job_code</t>
+  </si>
+  <si>
+    <t>clone_file_size</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -486,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAE93D2-18D6-4860-BCC4-1DFF5E3A6452}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6:O10"/>
     </sheetView>
   </sheetViews>
@@ -983,4 +990,508 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9563F5F7-FD3B-4994-83AA-4AE97F903D75}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>44</v>
+      </c>
+      <c r="O2">
+        <f>L2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3">
+        <v>42</v>
+      </c>
+      <c r="O3">
+        <f>L3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <f>L4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>38</v>
+      </c>
+      <c r="O5">
+        <f>L5</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6">
+        <v>38</v>
+      </c>
+      <c r="O6">
+        <f>L6</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7">
+        <v>28</v>
+      </c>
+      <c r="O7">
+        <f>L7</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8">
+        <v>28</v>
+      </c>
+      <c r="O8">
+        <f>L8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>7.6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <v>16</v>
+      </c>
+      <c r="O9">
+        <f>L9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.83958333333333324</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <f>L10</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>SUM(F2:F10)</f>
+        <v>97</v>
+      </c>
+      <c r="G12">
+        <f>F12/3</f>
+        <v>32.333333333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O10">
+    <sortCondition descending="1" ref="F2:F10"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>